--- a/df_1/df_1_4.xlsx
+++ b/df_1/df_1_4.xlsx
@@ -683,417 +683,417 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>14.926 %</t>
+          <t>14,926</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.4577 %</t>
+          <t>0,4577</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.6668 %</t>
+          <t>0,6668</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.3725 %</t>
+          <t>0,3725</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.8012 %</t>
+          <t>0,8012</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9009 %</t>
+          <t>0,9009</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1.0105 %</t>
+          <t>1,0105</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.1613 %</t>
+          <t>1,1613</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1.2075 %</t>
+          <t>1,2075</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>1.2816 %</t>
+          <t>1,2816</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.975 %</t>
+          <t>0,975</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>1.203 %</t>
+          <t>1,203</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1.2802 %</t>
+          <t>1,2802</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>0.9313 %</t>
+          <t>0,9313</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.8175 %</t>
+          <t>0,8175</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.7816 %</t>
+          <t>0,7816</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.9677 %</t>
+          <t>0,9677</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>1.0852 %</t>
+          <t>1,0852</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.8136 %</t>
+          <t>0,8136</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>0.7471 %</t>
+          <t>0,7471</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>0.9315 %</t>
+          <t>0,9315</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>1.0489 %</t>
+          <t>1,0489</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>1.0642 %</t>
+          <t>1,0642</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>0.9872 %</t>
+          <t>0,9872</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>0.8906 %</t>
+          <t>0,8906</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>1.0227 %</t>
+          <t>1,0227</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>0.8228 %</t>
+          <t>0,8228</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>0.8454 %</t>
+          <t>0,8454</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>0.879 %</t>
+          <t>0,879</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>0.7383 %</t>
+          <t>0,7383</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>0.6881 %</t>
+          <t>0,6881</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>0.6248 %</t>
+          <t>0,6248</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>0.5586 %</t>
+          <t>0,5586</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>0.506 %</t>
+          <t>0,506</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>1.0371 %</t>
+          <t>1,0371</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>0.4513 %</t>
+          <t>0,4513</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>0.5594 %</t>
+          <t>0,5594</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>0.7235 %</t>
+          <t>0,7235</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>0.7381 %</t>
+          <t>0,7381</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>0.8051 %</t>
+          <t>0,8051</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>0.6078 %</t>
+          <t>0,6078</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>1.1168 %</t>
+          <t>1,1168</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>0.7221 %</t>
+          <t>0,7221</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>1.2613 %</t>
+          <t>1,2613</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
         <is>
-          <t>0.6261 %</t>
+          <t>0,6261</t>
         </is>
       </c>
       <c r="AU2" t="inlineStr">
         <is>
-          <t>0.8187 %</t>
+          <t>0,8187</t>
         </is>
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>0.285 %</t>
+          <t>0,285</t>
         </is>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>0.5917 %</t>
+          <t>0,5917</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>1.3639 %</t>
+          <t>1,3639</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr">
         <is>
-          <t>0.5538 %</t>
+          <t>0,5538</t>
         </is>
       </c>
       <c r="AZ2" t="inlineStr">
         <is>
-          <t>0.6089 %</t>
+          <t>0,6089</t>
         </is>
       </c>
       <c r="BA2" t="inlineStr">
         <is>
-          <t>0.3194 %</t>
+          <t>0,3194</t>
         </is>
       </c>
       <c r="BB2" t="inlineStr">
         <is>
-          <t>0.5168 %</t>
+          <t>0,5168</t>
         </is>
       </c>
       <c r="BC2" t="inlineStr">
         <is>
-          <t>1.1349 %</t>
+          <t>1,1349</t>
         </is>
       </c>
       <c r="BD2" t="inlineStr">
         <is>
-          <t>0.2122 %</t>
+          <t>0,2122</t>
         </is>
       </c>
       <c r="BE2" t="inlineStr">
         <is>
-          <t>0.2829 %</t>
+          <t>0,2829</t>
         </is>
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>0.5779 %</t>
+          <t>0,5779</t>
         </is>
       </c>
       <c r="BG2" t="inlineStr">
         <is>
-          <t>0.885 %</t>
+          <t>0,885</t>
         </is>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>0.4828 %</t>
+          <t>0,4828</t>
         </is>
       </c>
       <c r="BI2" t="inlineStr">
         <is>
-          <t>0.5853 %</t>
+          <t>0,5853</t>
         </is>
       </c>
       <c r="BJ2" t="inlineStr">
         <is>
-          <t>0.1146 %</t>
+          <t>0,1146</t>
         </is>
       </c>
       <c r="BK2" t="inlineStr">
         <is>
-          <t>0.2566 %</t>
+          <t>0,2566</t>
         </is>
       </c>
       <c r="BL2" t="inlineStr">
         <is>
-          <t>0.4444 %</t>
+          <t>0,4444</t>
         </is>
       </c>
       <c r="BM2" t="inlineStr">
         <is>
-          <t>0.223 %</t>
+          <t>0,223</t>
         </is>
       </c>
       <c r="BN2" t="inlineStr">
         <is>
-          <t>0.135 %</t>
+          <t>0,135</t>
         </is>
       </c>
       <c r="BO2" t="inlineStr">
         <is>
-          <t>0.1024 %</t>
+          <t>0,1024</t>
         </is>
       </c>
       <c r="BP2" t="inlineStr">
         <is>
-          <t>0.1188 %</t>
+          <t>0,1188</t>
         </is>
       </c>
       <c r="BQ2" t="inlineStr">
         <is>
-          <t>0.1357 %</t>
+          <t>0,1357</t>
         </is>
       </c>
       <c r="BR2" t="inlineStr">
         <is>
-          <t>0.3751 %</t>
+          <t>0,3751</t>
         </is>
       </c>
       <c r="BS2" t="inlineStr">
         <is>
-          <t>0.1094 %</t>
+          <t>0,1094</t>
         </is>
       </c>
       <c r="BT2" t="inlineStr">
         <is>
-          <t>0.1168 %</t>
+          <t>0,1168</t>
         </is>
       </c>
       <c r="BU2" t="inlineStr">
         <is>
-          <t>0.0838 %</t>
+          <t>0,0838</t>
         </is>
       </c>
       <c r="BV2" t="inlineStr">
         <is>
-          <t>0.1821 %</t>
+          <t>0,1821</t>
         </is>
       </c>
       <c r="BW2" t="inlineStr">
         <is>
-          <t>0.376 %</t>
+          <t>0,376</t>
         </is>
       </c>
       <c r="BX2" t="inlineStr">
         <is>
-          <t>0.1713 %</t>
+          <t>0,1713</t>
         </is>
       </c>
       <c r="BY2" t="inlineStr">
         <is>
-          <t>0.2229 %</t>
+          <t>0,2229</t>
         </is>
       </c>
       <c r="BZ2" t="inlineStr">
         <is>
-          <t>0.2709 %</t>
+          <t>0,2709</t>
         </is>
       </c>
       <c r="CA2" t="inlineStr">
         <is>
-          <t>0.6114 %</t>
+          <t>0,6114</t>
         </is>
       </c>
       <c r="CB2" t="inlineStr">
         <is>
-          <t>1.1335 %</t>
+          <t>1,1335</t>
         </is>
       </c>
       <c r="CC2" t="inlineStr">
         <is>
-          <t>0.6738 %</t>
+          <t>0,6738</t>
         </is>
       </c>
       <c r="CD2" t="inlineStr">
         <is>
-          <t>0.6531 %</t>
+          <t>0,6531</t>
         </is>
       </c>
       <c r="CE2" t="inlineStr">
         <is>
-          <t>0.4034 %</t>
+          <t>0,4034</t>
         </is>
       </c>
       <c r="CF2" t="inlineStr">
         <is>
-          <t>11.3708 %</t>
+          <t>11,3708</t>
         </is>
       </c>
     </row>
@@ -1105,257 +1105,257 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2.1005 %</t>
+          <t>2,1005</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>3.7325 %</t>
+          <t>3,7325</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.5505 %</t>
+          <t>0,5505</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.1805 %</t>
+          <t>0,1805</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.1158 %</t>
+          <t>0,1158</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2851 %</t>
+          <t>0,2851</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.1971 %</t>
+          <t>0,1971</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.1786 %</t>
+          <t>0,1786</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.2455 %</t>
+          <t>0,2455</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.2556 %</t>
+          <t>0,2556</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.3017 %</t>
+          <t>0,3017</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.3931 %</t>
+          <t>0,3931</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0.4059 %</t>
+          <t>0,4059</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>0.6019 %</t>
+          <t>0,6019</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.5639 %</t>
+          <t>0,5639</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.4933 %</t>
+          <t>0,4933</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.5907 %</t>
+          <t>0,5907</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.6444 %</t>
+          <t>0,6444</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.7297 %</t>
+          <t>0,7297</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>0.7173 %</t>
+          <t>0,7173</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0.6026 %</t>
+          <t>0,6026</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>0.6043 %</t>
+          <t>0,6043</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>1.5534 %</t>
+          <t>1,5534</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>0.7375 %</t>
+          <t>0,7375</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>0.8892 %</t>
+          <t>0,8892</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>1.5607 %</t>
+          <t>1,5607</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>0.9202 %</t>
+          <t>0,9202</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>1.0414 %</t>
+          <t>1,0414</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>0.8679 %</t>
+          <t>0,8679</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>1.0929 %</t>
+          <t>1,0929</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>0.9972 %</t>
+          <t>0,9972</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>1.0615 %</t>
+          <t>1,0615</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>0.8505 %</t>
+          <t>0,8505</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>0.9835 %</t>
+          <t>0,9835</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>1.4313 %</t>
+          <t>1,4313</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>0.8288 %</t>
+          <t>0,8288</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>0.85 %</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>0.9787 %</t>
+          <t>0,9787</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>1.2105 %</t>
+          <t>1,2105</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>1.0016 %</t>
+          <t>1,0016</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>0.7115 %</t>
+          <t>0,7115</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>0.6153 %</t>
+          <t>0,6153</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>0.5586 %</t>
+          <t>0,5586</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>0.4238 %</t>
+          <t>0,4238</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>0.5713 %</t>
+          <t>0,5713</t>
         </is>
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>0.1989 %</t>
+          <t>0,1989</t>
         </is>
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>0.4068 %</t>
+          <t>0,4068</t>
         </is>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>0.2158 %</t>
+          <t>0,2158</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>0.604 %</t>
+          <t>0,604</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr">
         <is>
-          <t>0.8282 %</t>
+          <t>0,8282</t>
         </is>
       </c>
       <c r="AZ3" t="inlineStr">
         <is>
-          <t>0.8995 %</t>
+          <t>0,8995</t>
         </is>
       </c>
     </row>
@@ -1367,287 +1367,287 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4.6815 %</t>
+          <t>4,6815</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.4073 %</t>
+          <t>1,4073</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.7121 %</t>
+          <t>0,7121</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.459 %</t>
+          <t>0,459</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.4232 %</t>
+          <t>0,4232</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.421 %</t>
+          <t>0,421</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1.3005 %</t>
+          <t>1,3005</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.327 %</t>
+          <t>0,327</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.1886 %</t>
+          <t>0,1886</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.0814 %</t>
+          <t>0,0814</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.0569 %</t>
+          <t>0,0569</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.0472 %</t>
+          <t>0,0472</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0.0473 %</t>
+          <t>0,0473</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0.0401 %</t>
+          <t>0,0401</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.0382 %</t>
+          <t>0,0382</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.0885 %</t>
+          <t>0,0885</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.11 %</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.1274 %</t>
+          <t>0,1274</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.0951 %</t>
+          <t>0,0951</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>0.0947 %</t>
+          <t>0,0947</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>0.0998 %</t>
+          <t>0,0998</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>0.1582 %</t>
+          <t>0,1582</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>0.1724 %</t>
+          <t>0,1724</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>0.1409 %</t>
+          <t>0,1409</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>0.1271 %</t>
+          <t>0,1271</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>0.3678 %</t>
+          <t>0,3678</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>1.0829 %</t>
+          <t>1,0829</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>1.6466 %</t>
+          <t>1,6466</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>0.9556 %</t>
+          <t>0,9556</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>0.4473 %</t>
+          <t>0,4473</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>0.3126 %</t>
+          <t>0,3126</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>0.2611 %</t>
+          <t>0,2611</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>0.2295 %</t>
+          <t>0,2295</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>0.2074 %</t>
+          <t>0,2074</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>0.1884 %</t>
+          <t>0,1884</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>0.1657 %</t>
+          <t>0,1657</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>0.14 %</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>0.1542 %</t>
+          <t>0,1542</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>0.1966 %</t>
+          <t>0,1966</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>0.244 %</t>
+          <t>0,244</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>0.2818 %</t>
+          <t>0,2818</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>0.4353 %</t>
+          <t>0,4353</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>0.6912 %</t>
+          <t>0,6912</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>1.1907 %</t>
+          <t>1,1907</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>1.3417 %</t>
+          <t>1,3417</t>
         </is>
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>2.1619 %</t>
+          <t>2,1619</t>
         </is>
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>2.3458 %</t>
+          <t>2,3458</t>
         </is>
       </c>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>6.7743 %</t>
+          <t>6,7743</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>10.0981 %</t>
+          <t>10,0981</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr">
         <is>
-          <t>14.5304 %</t>
+          <t>14,5304</t>
         </is>
       </c>
       <c r="AZ4" t="inlineStr">
         <is>
-          <t>9.2269 %</t>
+          <t>9,2269</t>
         </is>
       </c>
       <c r="BA4" t="inlineStr">
         <is>
-          <t>10.5935 %</t>
+          <t>10,5935</t>
         </is>
       </c>
       <c r="BB4" t="inlineStr">
         <is>
-          <t>7.8823 %</t>
+          <t>7,8823</t>
         </is>
       </c>
       <c r="BC4" t="inlineStr">
         <is>
-          <t>7.4539 %</t>
+          <t>7,4539</t>
         </is>
       </c>
       <c r="BD4" t="inlineStr">
         <is>
-          <t>9.2659 %</t>
+          <t>9,2659</t>
         </is>
       </c>
       <c r="BE4" t="inlineStr">
         <is>
-          <t>5.7582 %</t>
+          <t>5,7582</t>
         </is>
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>6.9247 %</t>
+          <t>6,9247</t>
         </is>
       </c>
     </row>
